--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="H2">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="I2">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="J2">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.6208433333333</v>
+        <v>0.2595153333333333</v>
       </c>
       <c r="N2">
-        <v>304.86253</v>
+        <v>0.778546</v>
       </c>
       <c r="O2">
-        <v>0.7748298251610983</v>
+        <v>0.008853914448786948</v>
       </c>
       <c r="P2">
-        <v>0.7748298251610983</v>
+        <v>0.008853914448786946</v>
       </c>
       <c r="Q2">
-        <v>6226.668470082588</v>
+        <v>8.438171945658</v>
       </c>
       <c r="R2">
-        <v>56040.0162307433</v>
+        <v>75.943547510922</v>
       </c>
       <c r="S2">
-        <v>0.2692227264964368</v>
+        <v>0.001931959316929821</v>
       </c>
       <c r="T2">
-        <v>0.2692227264964367</v>
+        <v>0.001931959316929821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="H3">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="I3">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="J3">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>71.100737</v>
       </c>
       <c r="O3">
-        <v>0.1807075852140151</v>
+        <v>0.80858400485482</v>
       </c>
       <c r="P3">
-        <v>0.1807075852140151</v>
+        <v>0.80858400485482</v>
       </c>
       <c r="Q3">
-        <v>1452.197871865508</v>
+        <v>770.616308180901</v>
       </c>
       <c r="R3">
-        <v>13069.78084678957</v>
+        <v>6935.546773628109</v>
       </c>
       <c r="S3">
-        <v>0.06278874045638236</v>
+        <v>0.1764362430578628</v>
       </c>
       <c r="T3">
-        <v>0.06278874045638236</v>
+        <v>0.1764362430578628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="H4">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="I4">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="J4">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.831378333333333</v>
+        <v>5.351040999999999</v>
       </c>
       <c r="N4">
-        <v>17.494135</v>
+        <v>16.053123</v>
       </c>
       <c r="O4">
-        <v>0.04446258962488651</v>
+        <v>0.1825620806963931</v>
       </c>
       <c r="P4">
-        <v>0.04446258962488651</v>
+        <v>0.1825620806963931</v>
       </c>
       <c r="Q4">
-        <v>357.3091741247055</v>
+        <v>173.989734888879</v>
       </c>
       <c r="R4">
-        <v>3215.78256712235</v>
+        <v>1565.907613999911</v>
       </c>
       <c r="S4">
-        <v>0.0154489917878617</v>
+        <v>0.03983577148385632</v>
       </c>
       <c r="T4">
-        <v>0.0154489917878617</v>
+        <v>0.03983577148385631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>269.001297</v>
       </c>
       <c r="I5">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="J5">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>101.6208433333333</v>
+        <v>0.2595153333333333</v>
       </c>
       <c r="N5">
-        <v>304.86253</v>
+        <v>0.778546</v>
       </c>
       <c r="O5">
-        <v>0.7748298251610983</v>
+        <v>0.008853914448786948</v>
       </c>
       <c r="P5">
-        <v>0.7748298251610983</v>
+        <v>0.008853914448786946</v>
       </c>
       <c r="Q5">
-        <v>9112.04621963349</v>
+        <v>23.269987086018</v>
       </c>
       <c r="R5">
-        <v>82008.41597670142</v>
+        <v>209.429883774162</v>
       </c>
       <c r="S5">
-        <v>0.3939779255950558</v>
+        <v>0.005327773437800386</v>
       </c>
       <c r="T5">
-        <v>0.3939779255950558</v>
+        <v>0.005327773437800385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.001297</v>
       </c>
       <c r="I6">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="J6">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>71.100737</v>
       </c>
       <c r="O6">
-        <v>0.1807075852140151</v>
+        <v>0.80858400485482</v>
       </c>
       <c r="P6">
-        <v>0.1807075852140151</v>
+        <v>0.80858400485482</v>
       </c>
       <c r="Q6">
         <v>2125.132274517321</v>
@@ -818,10 +818,10 @@
         <v>19126.19047065589</v>
       </c>
       <c r="S6">
-        <v>0.09188443352333141</v>
+        <v>0.4865590703653105</v>
       </c>
       <c r="T6">
-        <v>0.09188443352333141</v>
+        <v>0.4865590703653105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.001297</v>
       </c>
       <c r="I7">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="J7">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.831378333333333</v>
+        <v>5.351040999999999</v>
       </c>
       <c r="N7">
-        <v>17.494135</v>
+        <v>16.053123</v>
       </c>
       <c r="O7">
-        <v>0.04446258962488651</v>
+        <v>0.1825620806963931</v>
       </c>
       <c r="P7">
-        <v>0.04446258962488651</v>
+        <v>0.1825620806963931</v>
       </c>
       <c r="Q7">
-        <v>522.882778321455</v>
+        <v>479.812323100059</v>
       </c>
       <c r="R7">
-        <v>4705.945004893096</v>
+        <v>4318.310907900531</v>
       </c>
       <c r="S7">
-        <v>0.02260790467552658</v>
+        <v>0.1098552973275085</v>
       </c>
       <c r="T7">
-        <v>0.02260790467552658</v>
+        <v>0.1098552973275085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="H8">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="I8">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="J8">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.6208433333333</v>
+        <v>0.2595153333333333</v>
       </c>
       <c r="N8">
-        <v>304.86253</v>
+        <v>0.778546</v>
       </c>
       <c r="O8">
-        <v>0.7748298251610983</v>
+        <v>0.008853914448786948</v>
       </c>
       <c r="P8">
-        <v>0.7748298251610983</v>
+        <v>0.008853914448786946</v>
       </c>
       <c r="Q8">
-        <v>2581.794863083769</v>
+        <v>6.962868798111333</v>
       </c>
       <c r="R8">
-        <v>23236.15376775392</v>
+        <v>62.66581918300199</v>
       </c>
       <c r="S8">
-        <v>0.1116291730696058</v>
+        <v>0.001594181694056741</v>
       </c>
       <c r="T8">
-        <v>0.1116291730696058</v>
+        <v>0.00159418169405674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="H9">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="I9">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="J9">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>71.100737</v>
       </c>
       <c r="O9">
-        <v>0.1807075852140151</v>
+        <v>0.80858400485482</v>
       </c>
       <c r="P9">
-        <v>0.1807075852140151</v>
+        <v>0.80858400485482</v>
       </c>
       <c r="Q9">
-        <v>602.1321070453297</v>
+        <v>635.8842036052076</v>
       </c>
       <c r="R9">
-        <v>5419.188963407967</v>
+        <v>5722.957832446868</v>
       </c>
       <c r="S9">
-        <v>0.02603441123430133</v>
+        <v>0.1455886914316467</v>
       </c>
       <c r="T9">
-        <v>0.02603441123430132</v>
+        <v>0.1455886914316467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="H10">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="I10">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="J10">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.831378333333333</v>
+        <v>5.351040999999999</v>
       </c>
       <c r="N10">
-        <v>17.494135</v>
+        <v>16.053123</v>
       </c>
       <c r="O10">
-        <v>0.04446258962488651</v>
+        <v>0.1825620806963931</v>
       </c>
       <c r="P10">
-        <v>0.04446258962488651</v>
+        <v>0.1825620806963931</v>
       </c>
       <c r="Q10">
-        <v>148.1528998565155</v>
+        <v>143.569922970439</v>
       </c>
       <c r="R10">
-        <v>1333.37609870864</v>
+        <v>1292.129306733951</v>
       </c>
       <c r="S10">
-        <v>0.006405693161498228</v>
+        <v>0.03287101188502829</v>
       </c>
       <c r="T10">
-        <v>0.006405693161498228</v>
+        <v>0.03287101188502827</v>
       </c>
     </row>
   </sheetData>
